--- a/src/test/resources/org/xlbean/reader/TestBook_beaninbean.xlsx
+++ b/src/test/resources/org/xlbean/reader/TestBook_beaninbean.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanikawa\git\xlbean\src\test\resources\org\xlbean\reader\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ABC52C-C934-490A-95DF-848AAE14FB9A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="format" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>format#~</t>
     <phoneticPr fontId="1"/>
@@ -55,6 +57,34 @@
   </si>
   <si>
     <t>format#bbb.b2.b3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>listLeaf#list[0]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>listLeaf#list[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>listLeaf#~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test1-0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test0-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test0-0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test1-1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -431,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -554,4 +584,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D1E02-415A-48BB-93A4-F491D60CA8B0}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="14.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.9140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>